--- a/Pivots.xlsx
+++ b/Pivots.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534729A-A5AC-463B-B2B9-D3902D27F7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8499B4B8-FC82-4E1A-A891-83B407660BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivots" sheetId="1" r:id="rId1"/>
     <sheet name="1&amp;2" sheetId="3" r:id="rId2"/>
     <sheet name="3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Data" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Data!$B$3:$H$1003</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data!$B$3:$H$1003</definedName>
+    <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -3254,7 +3262,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$$-45C]#,##0"/>
+    <numFmt numFmtId="166" formatCode="[$$-45C]#,##0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -3351,7 +3359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3499,122 +3507,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3684,22 +3581,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3840,13 +3727,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3856,6 +3736,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3892,6 +3779,990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pivots.xlsx]3!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>C0013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C0005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C0007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C0010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C0006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C0009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>C0011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C0002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>C0001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C0008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-45C]#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3043-4D49-8636-B3CCFFBF18CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="479871535"/>
+        <c:axId val="479872015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="479871535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479872015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479872015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$$-45C]#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479871535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3945,6 +4816,125 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Representative">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB47783A-0F1C-F721-58A4-D4CFB6125060}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Representative"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2766060" y="266701"/>
+              <a:ext cx="1203960" cy="2186940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF86DA22-6768-045D-DA74-4A32143F77DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5731,7 +6721,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="91792967"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -14743,7 +15733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A55D0798-61A6-4D14-B835-C0DD1D85475E}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A55D0798-61A6-4D14-B835-C0DD1D85475E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0">
@@ -16584,7 +17574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3EEA36B-1DD6-4ADD-925A-80D06379C5E1}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3EEA36B-1DD6-4ADD-925A-80D06379C5E1}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -17403,8 +18393,19 @@
     <pageField fld="3" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Purchase Amount" fld="5" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Purchase Amount" fld="5" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
@@ -17426,767 +18427,33 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7178BFE-DA99-442A-A2F7-EEE410ECCEA9}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Representative" xr10:uid="{3019970B-5CC2-4EE0-B1BA-5837DD3EF55E}" sourceName="Representative">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="91792967">
+      <items count="5">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="4"/>
+        <i x="3" s="1"/>
+        <i x="0"/>
       </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0">
-      <items count="331">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Representative" xr10:uid="{27B04E26-6ABA-409B-8F61-B388212C583B}" cache="Slicer_Representative" caption="Representative" rowHeight="247650"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F3E99D4-DA89-4707-BD8C-50E46FB52A39}" name="calls" displayName="calls" ref="B3:H1003" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F3E99D4-DA89-4707-BD8C-50E46FB52A39}" name="calls" displayName="calls" ref="B3:H1003" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B3:H1003" xr:uid="{8F3E99D4-DA89-4707-BD8C-50E46FB52A39}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D5A3D3C6-CE00-4DEC-9FEC-07D04CCCAF68}" name=" " dataDxfId="6"/>
@@ -18579,7 +18846,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
         <v>1062</v>
       </c>
       <c r="B3" t="s">
@@ -18590,178 +18857,178 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4">
         <v>65</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="37">
         <v>3.8307692307692309</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5">
         <v>63</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <v>4.0730158730158736</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="37">
         <v>4.0179999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7">
         <v>82</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="37">
         <v>3.976829268292684</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8">
         <v>79</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="37">
         <v>3.9797468354430396</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9">
         <v>62</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="37">
         <v>3.7774193548387092</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10">
         <v>67</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="37">
         <v>3.8522388059701487</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11">
         <v>59</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="37">
         <v>3.901694915254236</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12">
         <v>69</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="37">
         <v>3.62608695652174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13">
         <v>72</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="37">
         <v>3.863888888888888</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14">
         <v>74</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="37">
         <v>3.9837837837837853</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15">
         <v>70</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="37">
         <v>4.1300000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16">
         <v>69</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="37">
         <v>3.7753623188405814</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17">
         <v>60</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="37">
         <v>3.609999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18">
         <v>59</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="37">
         <v>3.8389830508474563</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="36" t="s">
         <v>1063</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19">
         <v>1000</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="37">
         <v>3.8854000000000029</v>
       </c>
     </row>
@@ -18774,8 +19041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E9775F-A676-4341-885A-E85902647C29}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18785,7 +19052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -18793,7 +19060,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
         <v>1062</v>
       </c>
       <c r="B3" t="s">
@@ -18801,208 +19068,107 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="38">
         <v>1863</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="38">
         <v>1722</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="38">
         <v>1426</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="38">
         <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="38">
         <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="38">
         <v>1135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="38">
         <v>1043</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="38">
         <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="38">
         <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="38">
         <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="36" t="s">
         <v>1063</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="38">
         <v>12576</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31267FAC-7593-476F-8837-A289FB3E3611}">
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB3BB9B-13D8-4B9D-93DC-F3AAA9091AD1}">
   <dimension ref="B1:O1003"/>
   <sheetViews>
